--- a/data/input/absenteeism_data_20.xlsx
+++ b/data/input/absenteeism_data_20.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>63316</v>
+        <v>83011</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Valentina Pires</t>
+          <t>Kevin Almeida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G2" t="n">
-        <v>5812.29</v>
+        <v>5725.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>195</v>
+        <v>87970</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caio Farias</t>
+          <t>Benício da Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>6407.42</v>
+        <v>9300.780000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>36616</v>
+        <v>33262</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vicente da Mata</t>
+          <t>Isadora Teixeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>6950.06</v>
+        <v>3909.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73965</v>
+        <v>12275</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Larissa Barbosa</t>
+          <t>Eduardo Almeida</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,22 +581,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>5745.93</v>
+        <v>3026.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>48273</v>
+        <v>71122</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Julia Gomes</t>
+          <t>Luna da Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45101</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>10747.78</v>
+        <v>3070.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65771</v>
+        <v>45555</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rafaela Ribeiro</t>
+          <t>Leandro da Paz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>3872.27</v>
+        <v>7896.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56353</v>
+        <v>15815</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bianca Nascimento</t>
+          <t>Ana Júlia Ramos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>7468.14</v>
+        <v>9454.85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29866</v>
+        <v>79582</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Emanuella da Cruz</t>
+          <t>Dr. Luiz Fernando da Conceição</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45093</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>3270.91</v>
+        <v>5211.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1860</v>
+        <v>37084</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Renan Pires</t>
+          <t>Beatriz Jesus</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45098</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>2754.81</v>
+        <v>8977.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69796</v>
+        <v>34090</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Joaquim Cardoso</t>
+          <t>Maria Vitória Rodrigues</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45100</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>6756.5</v>
+        <v>7226.22</v>
       </c>
     </row>
   </sheetData>
